--- a/01 Microsoft Excel/hr_data/hr_data.xlsx
+++ b/01 Microsoft Excel/hr_data/hr_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sutoffice365-my.sharepoint.com/personal/m6201012_office365_sut_ac_th/Documents/WatcharinP/GitHub/Mini Data Science Bootcamp/Microsoft Excel/hr_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sutoffice365-my.sharepoint.com/personal/m6201012_office365_sut_ac_th/Documents/WatcharinP/GitHub/Mini-Data-Science-Bootcamp/01 Microsoft Excel/hr_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="187" documentId="13_ncr:1_{C7764878-D8EF-480A-8E0D-44670357DD56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FE608A0-6359-814D-9CAB-671B91DA9557}"/>
@@ -30,7 +30,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -399,7 +399,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -446,13 +446,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -465,36 +464,18 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -524,8 +505,8 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>177031</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="DEPT">
@@ -548,7 +529,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -602,8 +583,8 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>107759</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="POSITION">
@@ -626,7 +607,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -743,10 +724,10 @@
         <s v="Computer Science"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="BIRTH_DATE" numFmtId="165">
+    <cacheField name="BIRTH_DATE" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1979-10-22T00:00:00" maxDate="1998-11-20T00:00:00"/>
     </cacheField>
-    <cacheField name="HIRED_DATE" numFmtId="165">
+    <cacheField name="HIRED_DATE" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2003-11-11T00:00:00" maxDate="2023-05-29T00:00:00"/>
     </cacheField>
     <cacheField name="PERFORMANCE" numFmtId="0">
@@ -779,7 +760,7 @@
     <cacheField name="NEW_SALARY" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="28749.999999999996" maxValue="287500"/>
     </cacheField>
-    <cacheField name="%Bonus" numFmtId="0" formula=" SUM(BONUS )/SUM(SALARY )" databaseField="0"/>
+    <cacheField name="%Bonus" numFmtId="0" formula=" SUM(BONUS)/SUM(SALARY)" databaseField="0"/>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -1295,7 +1276,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{18FE47B5-CA6E-ED4E-9BA8-A2D6768D9D61}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{18FE47B5-CA6E-ED4E-9BA8-A2D6768D9D61}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="24">
     <pivotField showAll="0"/>
@@ -1363,8 +1344,8 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -1423,7 +1404,7 @@
     <dataField name="Sum of %Bonus" fld="23" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="1">
+    <format dxfId="3">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -1435,7 +1416,7 @@
     </format>
   </formats>
   <conditionalFormats count="2">
-    <conditionalFormat priority="2">
+    <conditionalFormat priority="1">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="2">
@@ -1454,7 +1435,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="1">
+    <conditionalFormat priority="2">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="2">
@@ -1528,8 +1509,8 @@
     <tableColumn id="9" xr3:uid="{E965109B-97FC-3243-8744-DE0596DCD141}" name="INCENTIVE"/>
     <tableColumn id="10" xr3:uid="{9C603907-665C-B442-929F-81DC794A0AB6}" name="DEGREE"/>
     <tableColumn id="11" xr3:uid="{636C59C6-E380-994E-BF93-C397FA04B2A1}" name="MAJOR"/>
-    <tableColumn id="12" xr3:uid="{2F7F35A9-7C6D-6648-928A-E3D2E4F1B314}" name="BIRTH_DATE" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{527300B3-2050-724B-9972-AB3743706C35}" name="HIRED_DATE" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{2F7F35A9-7C6D-6648-928A-E3D2E4F1B314}" name="BIRTH_DATE" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{527300B3-2050-724B-9972-AB3743706C35}" name="HIRED_DATE" dataDxfId="1"/>
     <tableColumn id="14" xr3:uid="{41C85661-3686-3F4A-B987-51EFD73515D5}" name="PERFORMANCE"/>
     <tableColumn id="15" xr3:uid="{942E3C67-6E57-B24B-9CC8-EADEA310BB93}" name="EXP_YEAR"/>
     <tableColumn id="16" xr3:uid="{15219BCB-9C7B-FA4A-AE45-EFF9BD324A6E}" name="DATE"/>
@@ -1539,7 +1520,7 @@
     <tableColumn id="20" xr3:uid="{EBEB8CE2-D333-304E-8E05-836B8EEC751E}" name="BRANCE"/>
     <tableColumn id="21" xr3:uid="{3CFDFBB7-507E-224D-8413-9860260CDB50}" name="CITY"/>
     <tableColumn id="22" xr3:uid="{A29165BE-5D85-B449-9CC3-7DD43B48CEB1}" name="COUNTRY"/>
-    <tableColumn id="23" xr3:uid="{F7D00AC3-6AAA-0B4D-A061-E390C1DAD8DE}" name="NEW_SALARY" dataDxfId="7">
+    <tableColumn id="23" xr3:uid="{F7D00AC3-6AAA-0B4D-A061-E390C1DAD8DE}" name="NEW_SALARY" dataDxfId="0">
       <calculatedColumnFormula>DATASET[[#This Row],[SALARY]]*1.15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1885,74 +1866,74 @@
     <col min="25" max="25" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" s="5" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2001,7 +1982,7 @@
         <f t="array" ref="N2:N21">IF(G2:G21&gt;1000000, "High", "Avg.")</f>
         <v>Avg.</v>
       </c>
-      <c r="O2" s="4" cm="1">
+      <c r="O2" cm="1">
         <f t="array" ref="O2:O21">2023-YEAR(M2:M21)</f>
         <v>8</v>
       </c>
@@ -2017,17 +1998,17 @@
         <f t="array" ref="R2:R21">YEAR(M2:M21)</f>
         <v>2015</v>
       </c>
-      <c r="S2" s="5" cm="1">
+      <c r="S2" s="4" cm="1">
         <f t="array" ref="S2:S21">DATE(R2:R21,Q2:Q21,P2:P21)</f>
         <v>42114</v>
       </c>
       <c r="T2">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U2" t="str" cm="1">
         <f t="array" aca="1" ref="U2:U21" ca="1">VLOOKUP(T2:T21, BRANCH, 2, FALSE)</f>
-        <v>London</v>
+        <v>Southhamton</v>
       </c>
       <c r="V2" t="str" cm="1">
         <f t="array" aca="1" ref="V2:V21" ca="1">_xlfn.XLOOKUP(T2:T21,BRANCH!A2:'BRANCH'!A4,BRANCH!C2:'BRANCH'!C4)</f>
@@ -2037,10 +2018,10 @@
         <f t="array" ref="W2:W21">SALARY*(1+Salary_Increase)</f>
         <v>255000</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Y2" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="Z2" s="6"/>
+      <c r="Z2" s="5"/>
       <c r="AA2" cm="1">
         <f t="array" ref="AA2:AM13">_xlfn._xlws.FILTER(EMPLOYEE,(DEPT="Marketing")+(SALARY&gt;100000))</f>
         <v>14</v>
@@ -2128,7 +2109,7 @@
       <c r="N3" t="str">
         <v>Avg.</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3">
         <v>3</v>
       </c>
       <c r="P3">
@@ -2140,7 +2121,7 @@
       <c r="R3">
         <v>2020</v>
       </c>
-      <c r="S3" s="5">
+      <c r="S3" s="4">
         <v>43970</v>
       </c>
       <c r="T3">
@@ -2158,10 +2139,10 @@
       <c r="W3">
         <v>183600</v>
       </c>
-      <c r="Y3" s="7">
+      <c r="Y3" s="6">
         <v>0.02</v>
       </c>
-      <c r="Z3" s="7"/>
+      <c r="Z3" s="6"/>
       <c r="AA3">
         <v>15</v>
       </c>
@@ -2248,7 +2229,7 @@
       <c r="N4" t="str">
         <v>Avg.</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4">
         <v>3</v>
       </c>
       <c r="P4">
@@ -2260,7 +2241,7 @@
       <c r="R4">
         <v>2020</v>
       </c>
-      <c r="S4" s="5">
+      <c r="S4" s="4">
         <v>44117</v>
       </c>
       <c r="T4">
@@ -2364,7 +2345,7 @@
       <c r="N5" t="str">
         <v>Avg.</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5">
         <v>19</v>
       </c>
       <c r="P5">
@@ -2376,7 +2357,7 @@
       <c r="R5">
         <v>2004</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S5" s="4">
         <v>38058</v>
       </c>
       <c r="T5">
@@ -2394,10 +2375,10 @@
       <c r="W5">
         <v>142800</v>
       </c>
-      <c r="Y5" s="7">
+      <c r="Y5" s="6">
         <v>0.02</v>
       </c>
-      <c r="Z5" s="7"/>
+      <c r="Z5" s="6"/>
       <c r="AA5">
         <v>20</v>
       </c>
@@ -2481,7 +2462,7 @@
       <c r="N6" t="str">
         <v>Avg.</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6">
         <v>12</v>
       </c>
       <c r="P6">
@@ -2493,28 +2474,28 @@
       <c r="R6">
         <v>2011</v>
       </c>
-      <c r="S6" s="5">
+      <c r="S6" s="4">
         <v>40798</v>
       </c>
       <c r="T6">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U6" t="str">
         <f ca="1"/>
-        <v>London</v>
+        <v>New York</v>
       </c>
       <c r="V6" t="str">
         <f ca="1"/>
-        <v>UK</v>
+        <v>USA</v>
       </c>
       <c r="W6">
         <v>81600</v>
       </c>
-      <c r="Y6" s="7">
+      <c r="Y6" s="6">
         <v>0.05</v>
       </c>
-      <c r="Z6" s="7"/>
+      <c r="Z6" s="6"/>
       <c r="AA6">
         <v>10</v>
       </c>
@@ -2598,7 +2579,7 @@
       <c r="N7" t="str">
         <v>Avg.</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7">
         <v>3</v>
       </c>
       <c r="P7">
@@ -2610,28 +2591,28 @@
       <c r="R7">
         <v>2020</v>
       </c>
-      <c r="S7" s="5">
+      <c r="S7" s="4">
         <v>44030</v>
       </c>
       <c r="T7">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U7" t="str">
         <f ca="1"/>
-        <v>London</v>
+        <v>New York</v>
       </c>
       <c r="V7" t="str">
         <f ca="1"/>
-        <v>UK</v>
+        <v>USA</v>
       </c>
       <c r="W7">
         <v>30600</v>
       </c>
-      <c r="Y7" s="7">
+      <c r="Y7" s="6">
         <v>0.1</v>
       </c>
-      <c r="Z7" s="7"/>
+      <c r="Z7" s="6"/>
       <c r="AA7">
         <v>13</v>
       </c>
@@ -2715,7 +2696,7 @@
       <c r="N8" t="str">
         <v>Avg.</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8">
         <v>17</v>
       </c>
       <c r="P8">
@@ -2727,28 +2708,28 @@
       <c r="R8">
         <v>2006</v>
       </c>
-      <c r="S8" s="5">
+      <c r="S8" s="4">
         <v>39056</v>
       </c>
       <c r="T8">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U8" t="str">
         <f ca="1"/>
-        <v>New York</v>
+        <v>London</v>
       </c>
       <c r="V8" t="str">
         <f ca="1"/>
-        <v>USA</v>
+        <v>UK</v>
       </c>
       <c r="W8">
         <v>25500</v>
       </c>
-      <c r="Y8" s="7">
+      <c r="Y8" s="6">
         <v>0.15</v>
       </c>
-      <c r="Z8" s="7"/>
+      <c r="Z8" s="6"/>
       <c r="AA8">
         <v>5</v>
       </c>
@@ -2832,7 +2813,7 @@
       <c r="N9" t="str">
         <v>Avg.</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9">
         <v>20</v>
       </c>
       <c r="P9">
@@ -2844,20 +2825,20 @@
       <c r="R9">
         <v>2003</v>
       </c>
-      <c r="S9" s="5">
+      <c r="S9" s="4">
         <v>37936</v>
       </c>
       <c r="T9">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U9" t="str">
         <f ca="1"/>
-        <v>New York</v>
+        <v>London</v>
       </c>
       <c r="V9" t="str">
         <f ca="1"/>
-        <v>USA</v>
+        <v>UK</v>
       </c>
       <c r="W9">
         <v>181560</v>
@@ -2945,7 +2926,7 @@
       <c r="N10" t="str">
         <v>Avg.</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10">
         <v>18</v>
       </c>
       <c r="P10">
@@ -2957,7 +2938,7 @@
       <c r="R10">
         <v>2005</v>
       </c>
-      <c r="S10" s="5">
+      <c r="S10" s="4">
         <v>38621</v>
       </c>
       <c r="T10">
@@ -3058,7 +3039,7 @@
       <c r="N11" t="str">
         <v>Avg.</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11">
         <v>6</v>
       </c>
       <c r="P11">
@@ -3070,7 +3051,7 @@
       <c r="R11">
         <v>2017</v>
       </c>
-      <c r="S11" s="5">
+      <c r="S11" s="4">
         <v>42979</v>
       </c>
       <c r="T11">
@@ -3171,7 +3152,7 @@
       <c r="N12" t="str">
         <v>Avg.</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
@@ -3183,7 +3164,7 @@
       <c r="R12">
         <v>2023</v>
       </c>
-      <c r="S12" s="5">
+      <c r="S12" s="4">
         <v>45074</v>
       </c>
       <c r="T12">
@@ -3284,7 +3265,7 @@
       <c r="N13" t="str">
         <v>Avg.</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13">
         <v>9</v>
       </c>
       <c r="P13">
@@ -3296,20 +3277,20 @@
       <c r="R13">
         <v>2014</v>
       </c>
-      <c r="S13" s="5">
+      <c r="S13" s="4">
         <v>41877</v>
       </c>
       <c r="T13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U13" t="str">
         <f ca="1"/>
-        <v>London</v>
+        <v>New York</v>
       </c>
       <c r="V13" t="str">
         <f ca="1"/>
-        <v>UK</v>
+        <v>USA</v>
       </c>
       <c r="W13">
         <v>32640</v>
@@ -3397,7 +3378,7 @@
       <c r="N14" t="str">
         <v>Avg.</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14">
         <v>6</v>
       </c>
       <c r="P14">
@@ -3409,7 +3390,7 @@
       <c r="R14">
         <v>2017</v>
       </c>
-      <c r="S14" s="5">
+      <c r="S14" s="4">
         <v>43100</v>
       </c>
       <c r="T14">
@@ -3471,7 +3452,7 @@
       <c r="N15" t="str">
         <v>Avg.</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15">
         <v>3</v>
       </c>
       <c r="P15">
@@ -3483,20 +3464,20 @@
       <c r="R15">
         <v>2020</v>
       </c>
-      <c r="S15" s="5">
+      <c r="S15" s="4">
         <v>43925</v>
       </c>
       <c r="T15">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U15" t="str">
         <f ca="1"/>
-        <v>New York</v>
+        <v>London</v>
       </c>
       <c r="V15" t="str">
         <f ca="1"/>
-        <v>USA</v>
+        <v>UK</v>
       </c>
       <c r="W15">
         <v>127500</v>
@@ -3545,7 +3526,7 @@
       <c r="N16" t="str">
         <v>Avg.</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O16">
         <v>3</v>
       </c>
       <c r="P16">
@@ -3557,20 +3538,20 @@
       <c r="R16">
         <v>2020</v>
       </c>
-      <c r="S16" s="5">
+      <c r="S16" s="4">
         <v>43862</v>
       </c>
       <c r="T16">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U16" t="str">
         <f ca="1"/>
-        <v>New York</v>
+        <v>London</v>
       </c>
       <c r="V16" t="str">
         <f ca="1"/>
-        <v>USA</v>
+        <v>UK</v>
       </c>
       <c r="W16">
         <v>91800</v>
@@ -3619,7 +3600,7 @@
       <c r="N17" t="str">
         <v>Avg.</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17">
         <v>18</v>
       </c>
       <c r="P17">
@@ -3631,7 +3612,7 @@
       <c r="R17">
         <v>2005</v>
       </c>
-      <c r="S17" s="5">
+      <c r="S17" s="4">
         <v>38663</v>
       </c>
       <c r="T17">
@@ -3693,7 +3674,7 @@
       <c r="N18" t="str">
         <v>Avg.</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18">
         <v>4</v>
       </c>
       <c r="P18">
@@ -3705,20 +3686,20 @@
       <c r="R18">
         <v>2019</v>
       </c>
-      <c r="S18" s="5">
+      <c r="S18" s="4">
         <v>43783</v>
       </c>
       <c r="T18">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U18" t="str">
         <f ca="1"/>
-        <v>New York</v>
+        <v>London</v>
       </c>
       <c r="V18" t="str">
         <f ca="1"/>
-        <v>USA</v>
+        <v>UK</v>
       </c>
       <c r="W18">
         <v>25500</v>
@@ -3767,7 +3748,7 @@
       <c r="N19" t="str">
         <v>Avg.</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O19">
         <v>14</v>
       </c>
       <c r="P19">
@@ -3779,7 +3760,7 @@
       <c r="R19">
         <v>2009</v>
       </c>
-      <c r="S19" s="5">
+      <c r="S19" s="4">
         <v>40016</v>
       </c>
       <c r="T19">
@@ -3841,7 +3822,7 @@
       <c r="N20" t="str">
         <v>Avg.</v>
       </c>
-      <c r="O20" s="4">
+      <c r="O20">
         <v>12</v>
       </c>
       <c r="P20">
@@ -3853,7 +3834,7 @@
       <c r="R20">
         <v>2011</v>
       </c>
-      <c r="S20" s="5">
+      <c r="S20" s="4">
         <v>40875</v>
       </c>
       <c r="T20">
@@ -3915,7 +3896,7 @@
       <c r="N21" t="str">
         <v>Avg.</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O21">
         <v>16</v>
       </c>
       <c r="P21">
@@ -3927,7 +3908,7 @@
       <c r="R21">
         <v>2007</v>
       </c>
-      <c r="S21" s="5">
+      <c r="S21" s="4">
         <v>39086</v>
       </c>
       <c r="T21">
@@ -3979,7 +3960,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>98</v>
       </c>
       <c r="B3" t="s">
@@ -3993,100 +3974,100 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4">
         <v>450000</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4">
         <v>90500</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>0.2011111111111111</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5">
         <v>430000</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5">
         <v>71000</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>0.16511627906976745</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6">
         <v>430000</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6">
         <v>84000</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>0.19534883720930232</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7">
         <v>252000</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7">
         <v>46500</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>0.18452380952380953</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8">
         <v>225000</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8">
         <v>36800</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>0.16355555555555557</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9">
         <v>206000</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9">
         <v>32500</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>0.15776699029126215</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10">
         <v>1993000</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10">
         <v>361300</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10">
         <v>0.18128449573507274</v>
       </c>
     </row>
@@ -4265,10 +4246,10 @@
       <c r="K2" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="4">
         <v>33667</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="4">
         <v>42114</v>
       </c>
       <c r="N2" t="s">
@@ -4411,10 +4392,10 @@
       <c r="K3" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="4">
         <v>35240</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="4">
         <v>43970</v>
       </c>
       <c r="N3" t="s">
@@ -4555,10 +4536,10 @@
       <c r="K4" t="s">
         <v>52</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="4">
         <v>36118</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="4">
         <v>44117</v>
       </c>
       <c r="N4" t="s">
@@ -4699,10 +4680,10 @@
       <c r="K5" t="s">
         <v>47</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="4">
         <v>30471</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <v>38058</v>
       </c>
       <c r="N5" t="s">
@@ -4843,10 +4824,10 @@
       <c r="K6" t="s">
         <v>48</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="4">
         <v>33212</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="4">
         <v>40798</v>
       </c>
       <c r="N6" t="s">
@@ -4987,10 +4968,10 @@
       <c r="K7" t="s">
         <v>48</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="4">
         <v>32785</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="4">
         <v>44030</v>
       </c>
       <c r="N7" t="s">
@@ -5131,10 +5112,10 @@
       <c r="K8" t="s">
         <v>48</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="4">
         <v>30213</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="4">
         <v>39056</v>
       </c>
       <c r="N8" t="s">
@@ -5275,10 +5256,10 @@
       <c r="K9" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="4">
         <v>29150</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="4">
         <v>37936</v>
       </c>
       <c r="N9" t="s">
@@ -5419,10 +5400,10 @@
       <c r="K10" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="4">
         <v>30108</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="4">
         <v>38621</v>
       </c>
       <c r="N10" t="s">
@@ -5563,10 +5544,10 @@
       <c r="K11" t="s">
         <v>40</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="4">
         <v>32366</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="4">
         <v>42979</v>
       </c>
       <c r="N11" t="s">
@@ -5707,10 +5688,10 @@
       <c r="K12" t="s">
         <v>40</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="4">
         <v>34243</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="4">
         <v>45074</v>
       </c>
       <c r="N12" t="s">
@@ -5851,10 +5832,10 @@
       <c r="K13" t="s">
         <v>38</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="4">
         <v>31074</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="4">
         <v>41877</v>
       </c>
       <c r="N13" t="s">
@@ -5995,10 +5976,10 @@
       <c r="K14" t="s">
         <v>21</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="4">
         <v>35337</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="4">
         <v>43100</v>
       </c>
       <c r="N14" t="s">
@@ -6139,10 +6120,10 @@
       <c r="K15" t="s">
         <v>24</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="4">
         <v>33027</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="4">
         <v>43925</v>
       </c>
       <c r="N15" t="s">
@@ -6283,10 +6264,10 @@
       <c r="K16" t="s">
         <v>12</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="4">
         <v>32264</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="4">
         <v>43862</v>
       </c>
       <c r="N16" t="s">
@@ -6427,10 +6408,10 @@
       <c r="K17" t="s">
         <v>21</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="4">
         <v>31002</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" s="4">
         <v>38663</v>
       </c>
       <c r="N17" t="s">
@@ -6571,10 +6552,10 @@
       <c r="K18" t="s">
         <v>12</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="4">
         <v>34747</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="4">
         <v>43783</v>
       </c>
       <c r="N18" t="s">
@@ -6715,10 +6696,10 @@
       <c r="K19" t="s">
         <v>32</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="4">
         <v>30594</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M19" s="4">
         <v>40016</v>
       </c>
       <c r="N19" t="s">
@@ -6859,10 +6840,10 @@
       <c r="K20" t="s">
         <v>12</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L20" s="4">
         <v>30307</v>
       </c>
-      <c r="M20" s="5">
+      <c r="M20" s="4">
         <v>40875</v>
       </c>
       <c r="N20" t="s">
@@ -7003,10 +6984,10 @@
       <c r="K21" t="s">
         <v>21</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21" s="4">
         <v>29731</v>
       </c>
-      <c r="M21" s="5">
+      <c r="M21" s="4">
         <v>39086</v>
       </c>
       <c r="N21" t="s">
@@ -7211,13 +7192,13 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>76</v>
       </c>
     </row>
